--- a/biology/Botanique/Jardin_public_d'Alep/Jardin_public_d'Alep.xlsx
+++ b/biology/Botanique/Jardin_public_d'Alep/Jardin_public_d'Alep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_public_d%27Alep</t>
+          <t>Jardin_public_d'Alep</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin public d'Alep (الحديقة العامة بحلب) est un parc urbain de 17 hectares situé à Alep, deuxième ville de Syrie par son importance, au nord du pays. il se trouve dans le quartier de la gare de Bagdad entre le district d'al-Djamiliyeh et celui d'al-Aziziyeh. Il est bordé à l'est par la rue Majdaldi al-Djabiri, la rue Kamel al-Ghazzi à l'ouest, la place Saadallah al-Djabiri au sud (et au-delà la rue du roi Fayçal). Il est traversé par la rivière Qouweiq[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin public d'Alep (الحديقة العامة بحلب) est un parc urbain de 17 hectares situé à Alep, deuxième ville de Syrie par son importance, au nord du pays. il se trouve dans le quartier de la gare de Bagdad entre le district d'al-Djamiliyeh et celui d'al-Aziziyeh. Il est bordé à l'est par la rue Majdaldi al-Djabiri, la rue Kamel al-Ghazzi à l'ouest, la place Saadallah al-Djabiri au sud (et au-delà la rue du roi Fayçal). Il est traversé par la rivière Qouweiq.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_public_d%27Alep</t>
+          <t>Jardin_public_d'Alep</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin public d'Alep, ouvert par la municipalité d'Alep en 1949, est réputé pour ses statues de sculpteurs syriens. Ainsi celle de l'émir Sayf al-Dawla (émir d'Alep au Xe siècle) se trouve à l'entrée principale du parc, tandis que celle du poète Khalil al-Hindawi (1906-1976) se trouve près des bassins du milieu.
-De nouveaux bassins avec fontaines et jets d'eau sont installés en 2006[2].
+De nouveaux bassins avec fontaines et jets d'eau sont installés en 2006.
 </t>
         </is>
       </c>
